--- a/documentation/bom_console.xlsx
+++ b/documentation/bom_console.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charuka\Desktop\Everything\Projects\handheld_console\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15E1CA1-9109-4CEA-B55D-E978FD728992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88677FAC-728E-4A91-B495-744B69930F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16935" yWindow="1785" windowWidth="18420" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>ITEM</t>
   </si>
@@ -63,9 +63,6 @@
     <t>CanaKit</t>
   </si>
   <si>
-    <t>Already had a raspberry pi</t>
-  </si>
-  <si>
     <t>M2.5 screws</t>
   </si>
   <si>
@@ -106,6 +103,18 @@
   </si>
   <si>
     <t>Top case enclosure</t>
+  </si>
+  <si>
+    <t>Already had a Raspberry Pi 3</t>
+  </si>
+  <si>
+    <t>Already had dupont wires</t>
+  </si>
+  <si>
+    <t>Already had switches</t>
+  </si>
+  <si>
+    <t>ACTUAL COST</t>
   </si>
 </sst>
 </file>
@@ -175,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -263,24 +272,77 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -289,127 +351,30 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -426,7 +391,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -447,24 +412,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -760,7 +720,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,189 +753,197 @@
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="15">
-        <v>0</v>
+      <c r="C2" s="12">
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="16">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="14">
         <v>62.39</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="16">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="14">
         <v>43.99</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="16">
+        <v>16</v>
+      </c>
+      <c r="B5" s="13">
         <v>12</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>12.98</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="16">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>13.59</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="16">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="22" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="13">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16">
-        <v>8</v>
-      </c>
-      <c r="C8" s="17">
-        <v>32.979999999999997</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="16">
+        <v>9</v>
+      </c>
+      <c r="B9" s="13">
         <v>8</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>19.98</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="16">
+        <v>19</v>
+      </c>
+      <c r="B10" s="13">
         <v>1</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>10.69</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="13">
         <v>1</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C12" s="14">
         <v>0</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0</v>
-      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="23" t="s">
-        <v>22</v>
+      <c r="E12" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="18">
         <f>SUM(C2:C12)</f>
-        <v>196.59999999999997</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+        <v>271.59999999999997</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="21">
+        <f>SUM(C3,C4,C6,C7,C9,C8,C11,C12)</f>
+        <v>172.92999999999998</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C12">
     <cfRule type="colorScale" priority="1">
